--- a/results/I1_R1_res.xlsx
+++ b/results/I1_R1_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6871.213999999996</v>
+        <v>6871.214000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3085.670000076294</v>
+        <v>10800.12800002098</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9955258966217881</v>
+        <v>0.98219860760794</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16865.436</v>
+        <v>15026.544</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16178.829</v>
+        <v>14223.372</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>686.6070000000001</v>
+        <v>570.0419999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4109.999999999998</v>
+        <v>4089.000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1388</v>
+        <v>1409</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +567,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>480</v>
+        <v>780.2331300000003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1216.348662</v>
+        <v>1188.193074</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1378.43427</v>
+        <v>1251.222924</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>895.5849719999999</v>
+        <v>1313.421504</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1150.026648</v>
+        <v>997.6137999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>959.9999999999998</v>
+        <v>1377.836532</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1086.545952</v>
+        <v>1061.845172</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>832.74171</v>
+        <v>720.0000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1024.932342</v>
+        <v>934.4649019999997</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1315.486882</v>
+        <v>1124.59202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1116,10 +1116,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1609,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1651,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1679,7 +1679,7 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1721,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>148.0000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>133.0000000000014</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1853,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>134.0000000000019</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1864,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>140.0000000000019</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1875,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>136.0000000000014</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>691</v>
+        <v>603.0000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>683</v>
+        <v>611.0000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>674</v>
+        <v>587.000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>672</v>
+        <v>597.0000000000019</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1930,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>678</v>
+        <v>596.0000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>926</v>
+        <v>706.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>929</v>
+        <v>723.0000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>932.9999999999985</v>
+        <v>710.000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>908</v>
+        <v>698.0000000000019</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>914</v>
+        <v>708.0000000000014</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>185</v>
+        <v>814.0000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>172</v>
+        <v>825.0000000000014</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>173</v>
+        <v>821.000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>808.0000000000019</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>176</v>
+        <v>820.0000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>582</v>
+        <v>294.000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>564</v>
+        <v>295.0000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>560</v>
+        <v>278.0000000000019</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2084,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>579</v>
+        <v>288.0000000000019</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>566</v>
+        <v>287.0000000000014</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>269</v>
+        <v>922.0000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>237</v>
+        <v>914.0000000000014</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>255</v>
+        <v>933.000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>258</v>
+        <v>906.0000000000019</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>250</v>
+        <v>914.0000000000014</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>494</v>
+        <v>412.000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2172,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>475</v>
+        <v>414.0000000000014</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>479</v>
+        <v>393.0000000000019</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>490</v>
+        <v>414.0000000000019</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>478</v>
+        <v>408.0000000000014</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2249,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>376</v>
+        <v>206.0000000000009</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>356</v>
+        <v>206.0000000000014</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>364</v>
+        <v>197.0000000000019</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>364</v>
+        <v>199.0000000000019</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>357</v>
+        <v>199.0000000000014</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>823</v>
+        <v>518.0000000000009</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>817</v>
+        <v>520.0000000000014</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>809.9999999999985</v>
+        <v>500.0000000000019</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2359,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>807</v>
+        <v>524.0000000000019</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>802</v>
+        <v>509.0000000000014</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>926</v>
+        <v>922.0000000000009</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>929</v>
+        <v>914.0000000000014</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2513,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>932.9999999999985</v>
+        <v>933.000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>908</v>
+        <v>906.0000000000019</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>914</v>
+        <v>914.0000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>826</v>
+        <v>822.0000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>829</v>
+        <v>814.0000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>832.9999999999985</v>
+        <v>833.000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>808</v>
+        <v>806.0000000000019</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>814</v>
+        <v>814.0000000000014</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2825,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2847,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3045,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>5</v>

--- a/results/I1_R1_res.xlsx
+++ b/results/I1_R1_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6871.214000000006</v>
+        <v>11808.497</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10800.12800002098</v>
+        <v>600.0729999542236</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.98219860760794</v>
+        <v>0.9754532229605699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>15026.544</v>
+        <v>11064.497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>14223.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>570.0419999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4089.000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1409</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -563,61 +563,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -660,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -671,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -682,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -693,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -704,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -715,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -726,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -737,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -748,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -759,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -770,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -781,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -816,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -827,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -893,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -904,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -988,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>780.2331300000003</v>
+        <v>1363.859916</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -996,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1188.193074</v>
+        <v>1287.615796</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1004,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1251.222924</v>
+        <v>1285.468624</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1012,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1313.421504</v>
+        <v>1276.001666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1020,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>997.6137999999996</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1028,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1377.836532</v>
+        <v>1362.836532</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1036,7 +981,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1061.845172</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1044,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>720.0000000000005</v>
+        <v>1211.393212</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1052,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>934.4649019999997</v>
+        <v>1362.70292</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1060,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1124.59202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1094,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,636 +1057,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>148.0000000000009</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1842,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>133.0000000000014</v>
+        <v>478.9999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1853,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>134.0000000000019</v>
+        <v>478.0000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1864,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>140.0000000000019</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1875,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>136.0000000000014</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1886,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>603.0000000000009</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1897,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>611.0000000000014</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1908,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>587.000000000002</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1919,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>597.0000000000019</v>
+        <v>372.0000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1930,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>596.0000000000014</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1941,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>706.0000000000009</v>
+        <v>102.9999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1952,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>723.0000000000014</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1963,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>710.000000000002</v>
+        <v>122.9999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1974,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>698.0000000000019</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1985,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>708.0000000000014</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1996,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>814.0000000000009</v>
+        <v>327.9999999999964</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2007,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>825.0000000000014</v>
+        <v>324.99999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2018,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>821.000000000002</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2029,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>808.0000000000019</v>
+        <v>333.9999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2040,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>820.0000000000014</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2051,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>294.000000000001</v>
+        <v>87.99999999999616</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2062,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>295.0000000000014</v>
+        <v>88.99999999999616</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2073,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>278.0000000000019</v>
+        <v>80.99999999999631</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2084,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>288.0000000000019</v>
+        <v>88.99999999999628</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2095,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>287.0000000000014</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2106,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>922.0000000000009</v>
+        <v>210.9999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2117,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>914.0000000000014</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2128,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>933.000000000002</v>
+        <v>234.9999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2139,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>906.0000000000019</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2150,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>914.0000000000014</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2161,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>412.000000000001</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2172,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>414.0000000000014</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2183,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>393.0000000000019</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2194,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>414.0000000000019</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2205,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>408.0000000000014</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2216,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>94</v>
+        <v>270.9999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2227,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>88</v>
+        <v>261.999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2238,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2249,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>91</v>
+        <v>279.0000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2260,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>264.9999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2271,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>206.0000000000009</v>
+        <v>458.9999999999927</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2282,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>206.0000000000014</v>
+        <v>470.99999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2293,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>197.0000000000019</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2304,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>199.0000000000019</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2315,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>199.0000000000014</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2326,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>518.0000000000009</v>
+        <v>219.9999999999964</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2337,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>520.0000000000014</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2348,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>500.0000000000019</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2359,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>524.0000000000019</v>
+        <v>223.9999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2370,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>509.0000000000014</v>
+        <v>211.9999999999709</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2381,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>458.9999999999926</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2392,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>471.0000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2403,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>456.9999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2414,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>462.0000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2425,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>454.0000000000026</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2436,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>211.0000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2447,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2458,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>234.9999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2469,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>198.9999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2480,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2491,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>922.0000000000009</v>
+        <v>488.0000000000103</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2502,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>914.0000000000014</v>
+        <v>478.9999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2513,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>933.000000000002</v>
+        <v>478.0000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2524,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>906.0000000000019</v>
+        <v>476.0000000000101</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2535,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>914.0000000000014</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>822.0000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2691,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>814.0000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2702,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>833.000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2713,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>806.0000000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2724,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>814.0000000000014</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2770,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2781,7 +2096,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2792,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2803,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2814,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2825,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2836,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2847,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2858,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3144,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3155,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3166,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3177,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3188,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3199,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3210,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3221,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3232,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3243,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3254,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3265,7 +2580,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3276,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3287,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3298,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3325,501 +2640,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
